--- a/_Resources/配置表/游戏配置表/Event.xlsx
+++ b/_Resources/配置表/游戏配置表/Event.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EventData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -41,18 +41,12 @@
     <t>roleSum</t>
   </si>
   <si>
-    <t>allRolePot</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>List&lt;float&gt;</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -65,19 +59,19 @@
     <t>角色数量</t>
   </si>
   <si>
-    <t>角色孔位位置</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>遇见</t>
+  </si>
+  <si>
     <t>Love</t>
   </si>
   <si>
     <t>相爱</t>
-  </si>
-  <si>
-    <t>-0.47,-0.13,0.37,-0.05</t>
   </si>
 </sst>
 </file>
@@ -743,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,9 +751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,6 +833,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,22 +1129,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.45" customWidth="1"/>
     <col min="2" max="2" width="24.9083333333333" customWidth="1"/>
     <col min="3" max="3" width="19.3083333333333" customWidth="1"/>
     <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,230 +1156,202 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="17.5" customHeight="1" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
+    </row>
+    <row r="6" ht="17.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" ht="16.5" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
